--- a/500all/speech_level/speeches_CHRG-114hhrg94523.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94523.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -383,7 +386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:H1"/>
+  <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,7 +394,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,6 +415,9 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94523.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94523.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>committee_name</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>govtrack</t>
+  </si>
+  <si>
+    <t>ranking</t>
   </si>
   <si>
     <t>speaker_last</t>
@@ -386,7 +389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:I1"/>
+  <dimension ref="B1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,7 +397,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,6 +421,9 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
